--- a/data/trans_dic/P55_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de teléfono</t>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,27 +662,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>99,04%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>98,51%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>95,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,49%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>95,82%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>99,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96,87%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>99,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>99,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>97,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>96,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,3; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,83; 100,0</t>
+          <t>91,99; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,71; 99,55</t>
+          <t>94,85; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 98,37</t>
+          <t>87,85; 98,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,03; 99,78</t>
+          <t>95,5; 99,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,79; 99,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91,04; 98,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92,78; 99,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98,01; 99,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96,81; 100,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>94,9; 99,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>92,4; 98,1</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>98,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>96,99%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>99,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>98,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>97,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,19; 100,0</t>
+          <t>96,42; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,98; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,62; 100,0</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,91; 99,08</t>
+          <t>93,73; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,62; 99,77</t>
+          <t>97,51; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,75; 99,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>91,53; 99,06</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94,7; 99,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>97,84; 99,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>93,27; 98,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95,9; 99,38</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>99,59%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>98,92%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>95,83%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>99,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>99,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>97,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,48; 100,0</t>
+          <t>97,95; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,23; 99,74</t>
+          <t>97,93; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92,62; 97,95</t>
+          <t>95,63; 99,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,46; 99,82</t>
+          <t>97,24; 99,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,94</t>
+          <t>97,85; 100,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92,65; 98,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94,21; 99,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>98,38; 99,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>98,9; 100,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>96,04; 98,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>96,2; 99,14</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>98,49%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>98,93%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>98,76%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98,99%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,83%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>99,16%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>99,32%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98,47%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>99,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>98,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>98,62%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,34; 100,0</t>
+          <t>98,46; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,98; 99,52</t>
+          <t>96,19; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,08; 99,72</t>
+          <t>95,84; 99,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100,0</t>
+          <t>96,61; 99,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,28; 99,83</t>
+          <t>97,22; 99,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,54</t>
+          <t>96,68; 99,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96,97; 100,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96,17; 99,6</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98,35; 99,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>97,45; 99,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97,31; 99,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97,38; 99,41</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>93,33%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>98,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>97,38%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>99,83%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>96,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99,62%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>95,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,47; 100,0</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,06; 96,42</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>99,26; 100</t>
+          <t>88,56; 96,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,67; 99,12</t>
+          <t>95,71; 99,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>99,14; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,88; 97,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94,44; 99,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>93,34; 98,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>98,88; 100,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97,76; 100,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>92,82; 97,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>95,64; 98,81</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1362,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>98,61%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>97,67%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>98,72%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>98,54%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96,58%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>99,09%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>99,17%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>97,47%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>98,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98,06%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,98; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,4; 99,43</t>
+          <t>95,27; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,63</t>
+          <t>94,09; 99,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,46; 100,0</t>
+          <t>95,97; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,96; 99,77</t>
+          <t>96,45; 99,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,35; 99,5</t>
+          <t>91,33; 98,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>95,49; 100,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93,63; 99,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>98,02; 99,78</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>94,47; 99,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>96,11; 99,49</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>95,94; 99,2</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>97,73%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>99,03%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>98,08%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>99,04%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98,97%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>97,52%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>99,33%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>99,34%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>97,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>97,82%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>99,14; 99,89</t>
+          <t>99,24; 99,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>96,5; 98,59</t>
+          <t>98,43; 99,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,42</t>
+          <t>96,46; 98,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,26</t>
+          <t>96,86; 98,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,97; 99,6</t>
+          <t>98,43; 99,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,21</t>
+          <t>97,81; 99,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96,35; 98,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99,03; 99,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>98,55; 99,52</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>96,87; 98,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>97,05; 98,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>503494</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>452594</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41284</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40894</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>490456</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>470977</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35836</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36602</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>993950</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>923571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>77120</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77495</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>424861; 461851</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39537; 41685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37724; 42442</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>475548; 495859</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34048; 36799</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35056; 37513</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>981510; 999314</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>903082; 932828</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75050; 78376</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74589; 79196</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>580220</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>579886</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48198</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46347</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>506334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>505103</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44882</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44865</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1086555</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1084989</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>93080</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91212</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>565171; 586179</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45065; 49456</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>44182; 47138</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>496205; 508872</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42353; 45840</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43263; 45444</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1071393; 1092543</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89288; 94745</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>89020; 92250</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>518.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>675192</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>662282</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59477</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59577</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>700748</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>706506</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51127</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53439</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1375940</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1368788</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>110603</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113015</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>663971; 677881</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58488; 59721</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57821; 60189</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>688832; 706510</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>695587; 710884</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49432; 52289</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51676; 54322</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1363802; 1382819</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1358097; 1373166</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>108594; 111704</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>110937; 114327</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>677.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>632335</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>648189</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57021</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56251</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>643473</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>649544</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51184</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52693</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1275809</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1297734</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>108205</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>108944</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>624297; 634093</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>628267; 653150</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55485; 57610</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55031; 56730</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>631965; 648341</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>635427; 655270</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50054; 51618</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51460; 53299</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1263013; 1282355</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1276972; 1306661</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>106563; 109015</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107580; 109819</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>489990</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>491261</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41033</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>43695</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>507595</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>510905</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47299</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45252</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>997585</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1002166</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>88332</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>88946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>480024; 491614</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>475980; 495036</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38937; 42430</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42492; 44191</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45870; 48126</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43724; 46163</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>988053; 999209</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>983397; 1005941</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>85899; 90212</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87265; 90155</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>528672</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>558537</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44876</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44973</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>679974</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>694180</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62538</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61666</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1208646</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1252717</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>107414</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>106639</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>539635; 566402</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>43233; 45680</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>43716; 45554</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>665553; 687432</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>656447; 710977</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>60264; 63113</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>59173; 62874</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1194567; 1216048</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1214067; 1272881</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>104820; 108500</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>104334; 107879</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1324.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>887.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>890.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1632.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2956.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2280.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1944.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1972.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3409903</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3392748</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>291888</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>291736</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3528579</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3537216</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>292866</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>294516</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6938482</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6929964</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>584753</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>586253</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3395908; 3417561</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3365049; 3408977</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>288097; 294331</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>288128; 294194</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3507133; 3543179</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3495632; 3557956</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>289352; 295418</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>291055; 297032</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6916994; 6956867</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6890982; 6959042</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>580237; 588559</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>581631; 589492</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>